--- a/data/trans_orig/P6607-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71C10A7-56A1-4335-B442-19E86945E135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF434C5C-9DCC-4ECE-9368-CAE014F2F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD87ED16-EA8C-43D8-AFC7-77DA9B1454AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{641D2AB3-B466-4504-9211-019C2F6B39AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="437">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>35,24%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1225 +106,1231 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>17,85%</t>
   </si>
   <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -1333,16 +1339,16 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>8,43%</t>
+    <t>8,91%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F37F6C-0841-42BF-B7BC-6F4E85B9CDC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDEDD71-EB38-4FE6-A817-CCB281B6C921}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2294,7 +2300,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2303,13 +2309,13 @@
         <v>31157</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -2318,13 +2324,13 @@
         <v>239978</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2386,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2392,13 +2398,13 @@
         <v>167531</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2407,13 +2413,13 @@
         <v>172832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -2422,13 +2428,13 @@
         <v>340363</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2449,13 @@
         <v>77367</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -2458,13 +2464,13 @@
         <v>47415</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -2473,10 +2479,10 @@
         <v>124782</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2497,10 +2503,10 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2509,13 +2515,13 @@
         <v>8710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2524,13 +2530,13 @@
         <v>58376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2551,13 @@
         <v>19470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2560,13 +2566,13 @@
         <v>4800</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2575,13 +2581,13 @@
         <v>24271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2655,13 @@
         <v>576184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>638</v>
@@ -2664,13 +2670,13 @@
         <v>689577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1177</v>
@@ -2679,13 +2685,13 @@
         <v>1265761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2706,13 @@
         <v>297534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -2715,13 +2721,13 @@
         <v>151411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>424</v>
@@ -2730,13 +2736,13 @@
         <v>448945</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2757,13 @@
         <v>259888</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2766,13 +2772,13 @@
         <v>50704</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -2781,13 +2787,13 @@
         <v>310592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,13 +2808,13 @@
         <v>274563</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -2817,13 +2823,13 @@
         <v>53829</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -2832,13 +2838,13 @@
         <v>328392</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2900,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2913,7 +2919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B63717-39A4-4409-BECE-1D24C17E0396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABD1B13-4762-40B7-AA03-E6273E571EF3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,13 +3043,13 @@
         <v>32737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3052,13 +3058,13 @@
         <v>41624</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3067,13 +3073,13 @@
         <v>74360</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3094,13 @@
         <v>26449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3103,13 +3109,13 @@
         <v>15166</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3118,13 +3124,13 @@
         <v>41616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3145,13 @@
         <v>27517</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3154,13 +3160,13 @@
         <v>4745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3169,13 +3175,13 @@
         <v>32262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3196,13 @@
         <v>50494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3205,13 +3211,13 @@
         <v>10552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -3220,13 +3226,13 @@
         <v>61046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3300,13 @@
         <v>310167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H9" s="7">
         <v>434</v>
@@ -3309,13 +3315,13 @@
         <v>441983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>728</v>
@@ -3324,13 +3330,13 @@
         <v>752149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3351,13 @@
         <v>239889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3360,13 +3366,13 @@
         <v>126092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -3375,13 +3381,13 @@
         <v>365981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3402,13 @@
         <v>166847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3411,13 +3417,13 @@
         <v>42016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>195</v>
@@ -3426,13 +3432,13 @@
         <v>208863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3453,13 @@
         <v>205590</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3462,13 +3468,13 @@
         <v>40805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>232</v>
@@ -3477,13 +3483,13 @@
         <v>246396</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3545,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3551,13 +3557,13 @@
         <v>201614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -3566,13 +3572,13 @@
         <v>233686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -3581,13 +3587,13 @@
         <v>435301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3608,13 @@
         <v>94806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -3617,13 +3623,13 @@
         <v>50624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -3632,13 +3638,13 @@
         <v>145430</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3659,13 @@
         <v>32098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3668,13 +3674,13 @@
         <v>17439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3683,13 +3689,13 @@
         <v>49538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3710,13 @@
         <v>20236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3719,13 +3725,13 @@
         <v>6705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3734,13 +3740,13 @@
         <v>26941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3814,13 @@
         <v>544518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>701</v>
@@ -3823,13 +3829,13 @@
         <v>717292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>1214</v>
@@ -3838,13 +3844,13 @@
         <v>1261810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3865,13 @@
         <v>361144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -3874,13 +3880,13 @@
         <v>191882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -3889,13 +3895,13 @@
         <v>553026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3916,13 @@
         <v>226462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -3925,13 +3931,13 @@
         <v>64201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -3940,13 +3946,13 @@
         <v>290663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3967,13 @@
         <v>276320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3976,13 +3982,13 @@
         <v>58062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3991,13 +3997,13 @@
         <v>334383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4059,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717A46BF-A7BF-4345-8A12-5E824845BE2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BE1200-3BF4-4781-940C-FF6C931AAA9C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4089,7 +4095,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4196,13 +4202,13 @@
         <v>19703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4211,13 +4217,13 @@
         <v>23709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -4226,13 +4232,13 @@
         <v>43412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4253,13 @@
         <v>14594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -4262,13 +4268,13 @@
         <v>13222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4277,13 +4283,13 @@
         <v>27816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4304,13 @@
         <v>8764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4313,13 +4319,13 @@
         <v>2716</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4328,13 +4334,13 @@
         <v>11480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4355,13 @@
         <v>24212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4364,13 +4370,13 @@
         <v>3371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4379,13 +4385,13 @@
         <v>27583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4459,13 @@
         <v>184193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>398</v>
@@ -4468,13 +4474,13 @@
         <v>295578</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>562</v>
@@ -4483,13 +4489,13 @@
         <v>479771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4510,13 @@
         <v>163584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4519,13 +4525,13 @@
         <v>87536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -4534,13 +4540,13 @@
         <v>251120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4561,13 @@
         <v>107417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4570,13 +4576,13 @@
         <v>32609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -4585,13 +4591,13 @@
         <v>140025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4612,13 @@
         <v>178930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4621,13 +4627,13 @@
         <v>40744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M12" s="7">
         <v>174</v>
@@ -4636,13 +4642,13 @@
         <v>219673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,7 +4704,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4710,13 +4716,13 @@
         <v>176744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -4725,13 +4731,13 @@
         <v>185175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -4740,13 +4746,13 @@
         <v>361919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4767,13 @@
         <v>39212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4776,13 +4782,13 @@
         <v>22615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -4791,13 +4797,13 @@
         <v>61826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4818,13 @@
         <v>24114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4827,13 +4833,13 @@
         <v>2585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4842,13 +4848,13 @@
         <v>26699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4869,13 @@
         <v>13914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4878,13 +4884,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4893,13 +4899,13 @@
         <v>17315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4973,13 @@
         <v>380639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -4982,13 +4988,13 @@
         <v>504463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>1035</v>
@@ -4997,13 +5003,13 @@
         <v>885102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5024,13 @@
         <v>217389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>159</v>
@@ -5033,13 +5039,13 @@
         <v>123373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>364</v>
@@ -5048,13 +5054,13 @@
         <v>340763</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5075,13 @@
         <v>140295</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5084,13 +5090,13 @@
         <v>37910</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -5099,13 +5105,13 @@
         <v>178204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>217056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -5135,13 +5141,13 @@
         <v>47515</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -5150,13 +5156,13 @@
         <v>264571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5218,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF434C5C-9DCC-4ECE-9368-CAE014F2F384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4E4BC3-CC90-46A7-86BB-9685BFDA47DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{641D2AB3-B466-4504-9211-019C2F6B39AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C2D48DB-185E-4D43-97D3-D5DF92B92045}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="429">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>35,24%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1203 +106,1185 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
     <t>17,32%</t>
   </si>
   <si>
@@ -1321,13 +1303,7 @@
     <t>8,9%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
     <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
   </si>
   <si>
     <t>37,14%</t>
@@ -1760,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDEDD71-EB38-4FE6-A817-CCB281B6C921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC74642A-1902-4958-8EA3-06EDB3E129A8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2294,13 +2270,13 @@
         <v>208822</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2315,7 +2291,7 @@
         <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -2324,13 +2300,13 @@
         <v>239978</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2362,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2398,13 +2374,13 @@
         <v>167531</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2413,13 +2389,13 @@
         <v>172832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -2428,13 +2404,13 @@
         <v>340363</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2425,13 @@
         <v>77367</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -2464,13 +2440,13 @@
         <v>47415</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -2479,13 +2455,13 @@
         <v>124782</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2476,13 @@
         <v>49666</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2515,13 +2491,13 @@
         <v>8710</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2530,13 +2506,13 @@
         <v>58376</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2527,13 @@
         <v>19470</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2566,13 +2542,13 @@
         <v>4800</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -2581,13 +2557,13 @@
         <v>24271</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2631,13 @@
         <v>576184</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>638</v>
@@ -2670,13 +2646,13 @@
         <v>689577</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>1177</v>
@@ -2685,13 +2661,13 @@
         <v>1265761</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2682,13 @@
         <v>297534</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>141</v>
@@ -2721,13 +2697,13 @@
         <v>151411</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>424</v>
@@ -2736,13 +2712,13 @@
         <v>448945</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2733,13 @@
         <v>259888</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2772,13 +2748,13 @@
         <v>50704</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -2787,13 +2763,13 @@
         <v>310592</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2784,13 @@
         <v>274563</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -2823,13 +2799,13 @@
         <v>53829</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -2838,13 +2814,13 @@
         <v>328392</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2876,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABD1B13-4762-40B7-AA03-E6273E571EF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B938EBA8-6BD3-45F3-A93C-F9766398F6CB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2936,7 +2912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3043,13 +3019,13 @@
         <v>32737</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3058,13 +3034,13 @@
         <v>41624</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3073,13 +3049,13 @@
         <v>74360</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3070,13 @@
         <v>26449</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3109,13 +3085,13 @@
         <v>15166</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3124,13 +3100,13 @@
         <v>41616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3121,13 @@
         <v>27517</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3160,13 +3136,13 @@
         <v>4745</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -3175,13 +3151,13 @@
         <v>32262</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3172,13 @@
         <v>50494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3211,13 +3187,13 @@
         <v>10552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -3226,13 +3202,13 @@
         <v>61046</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3276,13 @@
         <v>310167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H9" s="7">
         <v>434</v>
@@ -3315,13 +3291,13 @@
         <v>441983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M9" s="7">
         <v>728</v>
@@ -3330,13 +3306,13 @@
         <v>752149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3327,13 @@
         <v>239889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3366,13 +3342,13 @@
         <v>126092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -3381,13 +3357,13 @@
         <v>365981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3378,13 @@
         <v>166847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3417,13 +3393,13 @@
         <v>42016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>195</v>
@@ -3432,13 +3408,13 @@
         <v>208863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3429,13 @@
         <v>205590</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3468,13 +3444,13 @@
         <v>40805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M12" s="7">
         <v>232</v>
@@ -3483,13 +3459,13 @@
         <v>246396</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3521,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3557,13 +3533,13 @@
         <v>201614</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>226</v>
@@ -3572,13 +3548,13 @@
         <v>233686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -3587,13 +3563,13 @@
         <v>435301</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3584,13 @@
         <v>94806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -3623,13 +3599,13 @@
         <v>50624</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -3638,13 +3614,13 @@
         <v>145430</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3635,13 @@
         <v>32098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3674,13 +3650,13 @@
         <v>17439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3689,13 +3665,13 @@
         <v>49538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3686,13 @@
         <v>20236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3725,13 +3701,13 @@
         <v>6705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3740,13 +3716,13 @@
         <v>26941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3790,13 @@
         <v>544518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>701</v>
@@ -3829,13 +3805,13 @@
         <v>717292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>1214</v>
@@ -3844,13 +3820,13 @@
         <v>1261810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3841,13 @@
         <v>361144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -3880,13 +3856,13 @@
         <v>191882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -3895,13 +3871,13 @@
         <v>553026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3892,13 @@
         <v>226462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -3931,13 +3907,13 @@
         <v>64201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -3946,13 +3922,13 @@
         <v>290663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3943,13 @@
         <v>276320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3982,13 +3958,13 @@
         <v>58062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3997,13 +3973,13 @@
         <v>334383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4035,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BE1200-3BF4-4781-940C-FF6C931AAA9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F0878-4680-4A56-B9AF-6399C2179180}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4095,7 +4071,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4202,13 +4178,13 @@
         <v>19703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4217,13 +4193,13 @@
         <v>23709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -4232,13 +4208,13 @@
         <v>43412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4229,13 @@
         <v>14594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -4268,13 +4244,13 @@
         <v>13222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4283,13 +4259,13 @@
         <v>27816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4280,13 @@
         <v>8764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4319,13 +4295,13 @@
         <v>2716</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4334,13 +4310,13 @@
         <v>11480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,13 +4331,13 @@
         <v>24212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4370,13 +4346,13 @@
         <v>3371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4385,13 +4361,13 @@
         <v>27583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4435,13 @@
         <v>184193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>398</v>
@@ -4474,13 +4450,13 @@
         <v>295578</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>562</v>
@@ -4489,13 +4465,13 @@
         <v>479771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4486,13 @@
         <v>163584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4525,13 +4501,13 @@
         <v>87536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -4540,13 +4516,13 @@
         <v>251120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4537,13 @@
         <v>107417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4576,13 +4552,13 @@
         <v>32609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -4591,13 +4567,13 @@
         <v>140025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4588,13 @@
         <v>178930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4627,13 +4603,13 @@
         <v>40744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>174</v>
@@ -4642,13 +4618,13 @@
         <v>219673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4680,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4716,13 +4692,13 @@
         <v>176744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -4731,13 +4707,13 @@
         <v>185175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -4746,13 +4722,13 @@
         <v>361919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4743,13 @@
         <v>39212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4782,13 +4758,13 @@
         <v>22615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -4797,13 +4773,13 @@
         <v>61826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4794,13 @@
         <v>24114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4833,13 +4809,13 @@
         <v>2585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4848,13 +4824,13 @@
         <v>26699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4845,13 @@
         <v>13914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4884,13 +4860,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4899,13 +4875,13 @@
         <v>17315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4949,13 @@
         <v>380639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -4988,13 +4964,13 @@
         <v>504463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>1035</v>
@@ -5003,13 +4979,13 @@
         <v>885102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>19</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5000,13 @@
         <v>217389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>159</v>
@@ -5039,13 +5015,13 @@
         <v>123373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>364</v>
@@ -5054,13 +5030,13 @@
         <v>340763</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5051,13 @@
         <v>140295</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5090,13 +5066,13 @@
         <v>37910</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -5105,13 +5081,13 @@
         <v>178204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5102,13 @@
         <v>217056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -5141,13 +5117,13 @@
         <v>47515</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -5156,13 +5132,13 @@
         <v>264571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,7 +5194,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4E4BC3-CC90-46A7-86BB-9685BFDA47DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C45F58-AA09-4D60-8211-3F26F10D2950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C2D48DB-185E-4D43-97D3-D5DF92B92045}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA41390-35EB-44B3-BD79-824C0F93042D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="435">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,1237 +76,1255 @@
     <t>35,24%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>63,43%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>41,68%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>23,14%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>37,14%</t>
+    <t>35,6%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -1315,16 +1333,16 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>8,91%</t>
+    <t>8,43%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC74642A-1902-4958-8EA3-06EDB3E129A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906BF128-7D41-485F-A026-AFB44A93ABF1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2270,13 +2288,13 @@
         <v>208822</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2285,13 +2303,13 @@
         <v>31157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>220</v>
@@ -2300,13 +2318,13 @@
         <v>239978</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2380,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2374,13 +2392,13 @@
         <v>167531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -2389,13 +2407,13 @@
         <v>172832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
@@ -2404,13 +2422,13 @@
         <v>340363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2443,13 @@
         <v>77367</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -2440,13 +2458,13 @@
         <v>47415</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>116</v>
@@ -2455,13 +2473,13 @@
         <v>124782</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,10 +2494,10 @@
         <v>49666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2491,13 +2509,13 @@
         <v>8710</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>48</v>
@@ -2506,13 +2524,13 @@
         <v>58376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,10 +2769,10 @@
         <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -2763,13 +2781,13 @@
         <v>310592</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2802,13 @@
         <v>274563</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -2799,13 +2817,13 @@
         <v>53829</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>303</v>
@@ -2814,13 +2832,13 @@
         <v>328392</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,7 +2894,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B938EBA8-6BD3-45F3-A93C-F9766398F6CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61202A-D710-4B4E-8552-69A013D6CDD7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2912,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3019,13 +3037,13 @@
         <v>32737</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3034,13 +3052,13 @@
         <v>41624</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -3049,13 +3067,13 @@
         <v>74360</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3088,13 @@
         <v>26449</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -3085,13 +3103,13 @@
         <v>15166</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -3100,7 +3118,7 @@
         <v>41616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>175</v>
@@ -3345,10 +3363,10 @@
         <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -3357,13 +3375,13 @@
         <v>365981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3396,13 @@
         <v>166847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -3393,13 +3411,13 @@
         <v>42016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>195</v>
@@ -3408,13 +3426,13 @@
         <v>208863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3453,7 @@
         <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -3444,13 +3462,13 @@
         <v>40805</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>232</v>
@@ -3459,7 +3477,7 @@
         <v>246396</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>227</v>
@@ -3521,7 +3539,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3584,13 +3602,13 @@
         <v>94806</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -3599,13 +3617,13 @@
         <v>50624</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -3614,13 +3632,13 @@
         <v>145430</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,10 +3653,10 @@
         <v>32098</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>248</v>
@@ -3692,7 +3710,7 @@
         <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3701,13 +3719,13 @@
         <v>6705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -3716,13 +3734,13 @@
         <v>26941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3808,13 @@
         <v>544518</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>701</v>
@@ -3805,13 +3823,13 @@
         <v>717292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M19" s="7">
         <v>1214</v>
@@ -3820,13 +3838,13 @@
         <v>1261810</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3859,13 @@
         <v>361144</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>185</v>
@@ -3856,13 +3874,13 @@
         <v>191882</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>516</v>
@@ -3871,13 +3889,13 @@
         <v>553026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3910,13 @@
         <v>226462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -3907,13 +3925,13 @@
         <v>64201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>273</v>
@@ -3922,13 +3940,13 @@
         <v>290663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3961,13 @@
         <v>276320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>57</v>
@@ -3958,13 +3976,13 @@
         <v>58062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>315</v>
@@ -3973,13 +3991,13 @@
         <v>334383</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4053,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F0878-4680-4A56-B9AF-6399C2179180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BA924-02A4-4572-832C-4882729F6BCC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4071,7 +4089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4178,13 +4196,13 @@
         <v>19703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -4193,13 +4211,13 @@
         <v>23709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -4244,13 +4262,13 @@
         <v>13222</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4259,13 +4277,13 @@
         <v>27816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4298,13 @@
         <v>8764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -4295,13 +4313,13 @@
         <v>2716</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -4310,13 +4328,13 @@
         <v>11480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4349,13 @@
         <v>24212</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4346,13 +4364,13 @@
         <v>3371</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -4361,13 +4379,13 @@
         <v>27583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4453,13 @@
         <v>184193</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>398</v>
@@ -4450,13 +4468,13 @@
         <v>295578</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>562</v>
@@ -4465,13 +4483,13 @@
         <v>479771</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4504,13 @@
         <v>163584</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
@@ -4501,13 +4519,13 @@
         <v>87536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
@@ -4516,13 +4534,13 @@
         <v>251120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4555,13 @@
         <v>107417</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4552,13 +4570,13 @@
         <v>32609</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
@@ -4567,13 +4585,13 @@
         <v>140025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4606,13 @@
         <v>178930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -4603,13 +4621,13 @@
         <v>40744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>174</v>
@@ -4618,13 +4636,13 @@
         <v>219673</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,7 +4698,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4692,13 +4710,13 @@
         <v>176744</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -4707,13 +4725,13 @@
         <v>185175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -4722,13 +4740,13 @@
         <v>361919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4761,13 @@
         <v>39212</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -4758,13 +4776,13 @@
         <v>22615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
@@ -4773,13 +4791,13 @@
         <v>61826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4812,13 @@
         <v>24114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4809,13 +4827,13 @@
         <v>2585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4824,13 +4842,13 @@
         <v>26699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>394</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4863,13 @@
         <v>13914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4860,13 +4878,13 @@
         <v>3400</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -4875,13 +4893,13 @@
         <v>17315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4967,13 @@
         <v>380639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
@@ -4964,13 +4982,13 @@
         <v>504463</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>1035</v>
@@ -4979,13 +4997,13 @@
         <v>885102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5018,13 @@
         <v>217389</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>159</v>
@@ -5015,13 +5033,13 @@
         <v>123373</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>189</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>364</v>
@@ -5030,13 +5048,13 @@
         <v>340763</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>24</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5069,13 @@
         <v>140295</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>106</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -5066,13 +5084,13 @@
         <v>37910</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
@@ -5081,13 +5099,13 @@
         <v>178204</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>419</v>
+        <v>36</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5120,13 @@
         <v>217056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>64</v>
@@ -5117,13 +5135,13 @@
         <v>47515</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>220</v>
@@ -5132,13 +5150,13 @@
         <v>264571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,7 +5212,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C45F58-AA09-4D60-8211-3F26F10D2950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71A4D551-F886-447F-874F-77D4D71760A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA41390-35EB-44B3-BD79-824C0F93042D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A2061FDA-FB19-47CC-A810-2E7EC062F519}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -940,409 +940,409 @@
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>55,11%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906BF128-7D41-485F-A026-AFB44A93ABF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8F961B-AEAB-43FE-A066-5F0A25876488}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2389,7 +2389,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="7">
-        <v>167531</v>
+        <v>167530</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2593,7 +2593,7 @@
         <v>285</v>
       </c>
       <c r="D18" s="7">
-        <v>314034</v>
+        <v>314033</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2913,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61202A-D710-4B4E-8552-69A013D6CDD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84F70DB-DEE5-48DA-BB4D-E29299A55977}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4072,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86BA924-02A4-4572-832C-4882729F6BCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C62F7D-EEB2-4225-B018-9351EC6A64AB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4193,46 +4193,46 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>19703</v>
+        <v>19658</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>23709</v>
+        <v>21460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>43412</v>
+        <v>41118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,46 +4244,46 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>14594</v>
+        <v>14653</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>13222</v>
+        <v>12043</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>27816</v>
+        <v>26697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,46 +4295,46 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>8764</v>
+        <v>8326</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>2716</v>
+        <v>2480</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>11480</v>
+        <v>10805</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,46 +4346,46 @@
         <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>24212</v>
+        <v>22777</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3371</v>
+        <v>3140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>27583</v>
+        <v>25916</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4397,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -4412,7 +4412,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -4427,7 +4427,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -4450,46 +4450,46 @@
         <v>164</v>
       </c>
       <c r="D9" s="7">
-        <v>184193</v>
+        <v>177517</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>398</v>
       </c>
       <c r="I9" s="7">
-        <v>295578</v>
+        <v>272001</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>562</v>
       </c>
       <c r="N9" s="7">
-        <v>479771</v>
+        <v>449518</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,46 +4501,46 @@
         <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>163584</v>
+        <v>158631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>103</v>
       </c>
       <c r="I10" s="7">
-        <v>87536</v>
+        <v>104155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>250</v>
       </c>
       <c r="N10" s="7">
-        <v>251120</v>
+        <v>262785</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,46 +4552,46 @@
         <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>107417</v>
+        <v>101869</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>32609</v>
+        <v>28772</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>138</v>
       </c>
       <c r="N11" s="7">
-        <v>140025</v>
+        <v>130641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,46 +4603,46 @@
         <v>118</v>
       </c>
       <c r="D12" s="7">
-        <v>178930</v>
+        <v>367345</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>40744</v>
+        <v>36827</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>174</v>
       </c>
       <c r="N12" s="7">
-        <v>219673</v>
+        <v>404173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,7 +4654,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>634123</v>
+        <v>805362</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4669,7 +4669,7 @@
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>456467</v>
+        <v>441755</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4684,7 +4684,7 @@
         <v>1124</v>
       </c>
       <c r="N13" s="7">
-        <v>1090590</v>
+        <v>1247117</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4707,46 +4707,46 @@
         <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>176744</v>
+        <v>169469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>185175</v>
+        <v>172693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
       </c>
       <c r="N14" s="7">
-        <v>361919</v>
+        <v>342162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,43 +4758,43 @@
         <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>39212</v>
+        <v>36583</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
       </c>
       <c r="I15" s="7">
-        <v>22615</v>
+        <v>20731</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M15" s="7">
         <v>75</v>
       </c>
       <c r="N15" s="7">
-        <v>61826</v>
+        <v>57313</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>386</v>
@@ -4809,7 +4809,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>24114</v>
+        <v>22846</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>387</v>
@@ -4818,37 +4818,37 @@
         <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2585</v>
+        <v>2436</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>26699</v>
+        <v>25282</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,46 +4860,46 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>13914</v>
+        <v>13161</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3400</v>
+        <v>3207</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>17315</v>
+        <v>16368</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,7 +4911,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4926,7 +4926,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4941,7 +4941,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4964,46 +4964,46 @@
         <v>347</v>
       </c>
       <c r="D19" s="7">
-        <v>380639</v>
+        <v>366644</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>688</v>
       </c>
       <c r="I19" s="7">
-        <v>504463</v>
+        <v>466154</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>164</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>1035</v>
       </c>
       <c r="N19" s="7">
-        <v>885102</v>
+        <v>832798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,46 +5015,46 @@
         <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>217389</v>
+        <v>209866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>159</v>
       </c>
       <c r="I20" s="7">
-        <v>123373</v>
+        <v>136929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>364</v>
       </c>
       <c r="N20" s="7">
-        <v>340763</v>
+        <v>346795</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,46 +5066,46 @@
         <v>124</v>
       </c>
       <c r="D21" s="7">
-        <v>140295</v>
+        <v>133041</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>50</v>
+      </c>
+      <c r="I21" s="7">
+        <v>33687</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H21" s="7">
-        <v>50</v>
-      </c>
-      <c r="I21" s="7">
-        <v>37910</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>174</v>
       </c>
       <c r="N21" s="7">
-        <v>178204</v>
+        <v>166728</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>36</v>
+        <v>337</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5117,13 @@
         <v>156</v>
       </c>
       <c r="D22" s="7">
-        <v>217056</v>
+        <v>403284</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>428</v>
@@ -5132,7 +5132,7 @@
         <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>47515</v>
+        <v>43174</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>429</v>
@@ -5147,7 +5147,7 @@
         <v>220</v>
       </c>
       <c r="N22" s="7">
-        <v>264571</v>
+        <v>446457</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>432</v>
@@ -5168,7 +5168,7 @@
         <v>832</v>
       </c>
       <c r="D23" s="7">
-        <v>955379</v>
+        <v>1112835</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -5183,7 +5183,7 @@
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>713261</v>
+        <v>679944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -5198,7 +5198,7 @@
         <v>1793</v>
       </c>
       <c r="N23" s="7">
-        <v>1668640</v>
+        <v>1792779</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
